--- a/cap_balancacomercial/bc_2020.xlsx
+++ b/cap_balancacomercial/bc_2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name=" Balança comercial TO 2020" sheetId="1" state="visible" r:id="rId2"/>
@@ -799,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:N999"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3261,7 +3261,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3596,8 +3596,8 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
